--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43717,6 +43717,41 @@
         <v>4700200</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>8011500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43752,6 +43752,41 @@
         <v>8011500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>2125800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43787,6 +43787,41 @@
         <v>2125800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>5751100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43822,6 +43822,41 @@
         <v>5751100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1516900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43857,6 +43857,41 @@
         <v>1516900</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>4958900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43892,6 +43892,41 @@
         <v>4958900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>3366500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43927,6 +43927,41 @@
         <v>3366500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>4180100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43962,6 +43962,41 @@
         <v>4180100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>7207600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43997,6 +43997,41 @@
         <v>7207600</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>3009300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44032,6 +44032,41 @@
         <v>3009300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>5081100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44067,6 +44067,41 @@
         <v>5081100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>2539900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44102,6 +44102,41 @@
         <v>2539900</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>5706700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44137,6 +44137,76 @@
         <v>5706700</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>2240500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>2314100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44207,6 +44207,76 @@
         <v>2314100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>2516800</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2465100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44277,6 +44277,41 @@
         <v>2465100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>2183900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44312,6 +44312,41 @@
         <v>2183900</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>2159100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44347,6 +44347,41 @@
         <v>2159100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1725700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44382,6 +44382,41 @@
         <v>1725700</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>4158100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44417,6 +44417,76 @@
         <v>4158100</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>4624500</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>8695300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44487,6 +44487,41 @@
         <v>8695300</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>3079200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44522,6 +44522,41 @@
         <v>3079200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>7842200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1912"/>
+  <dimension ref="A1:I1913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68042,6 +68042,41 @@
         <v>7842200</v>
       </c>
     </row>
+    <row r="1913">
+      <c r="A1913" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1913" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1913" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1913" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1913" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1913" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1913" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1913" t="n">
+        <v>6206100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1913"/>
+  <dimension ref="A1:I1914"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68077,6 +68077,41 @@
         <v>6206100</v>
       </c>
     </row>
+    <row r="1914">
+      <c r="A1914" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1914" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1914" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1914" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1914" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1914" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1914" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1914" t="n">
+        <v>4957100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1914"/>
+  <dimension ref="A1:I1915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68112,6 +68112,41 @@
         <v>4957100</v>
       </c>
     </row>
+    <row r="1915">
+      <c r="A1915" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1915" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1915" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1915" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1915" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1915" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1915" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1915" t="n">
+        <v>6116400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1915"/>
+  <dimension ref="A1:I1916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68147,6 +68147,41 @@
         <v>6116400</v>
       </c>
     </row>
+    <row r="1916">
+      <c r="A1916" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1916" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1916" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1916" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1916" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1916" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1916" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1916" t="n">
+        <v>19694000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1916"/>
+  <dimension ref="A1:I1917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68182,6 +68182,41 @@
         <v>19694000</v>
       </c>
     </row>
+    <row r="1917">
+      <c r="A1917" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1917" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1917" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1917" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1917" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1917" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1917" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1917" t="n">
+        <v>38175800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1917"/>
+  <dimension ref="A1:I1918"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68217,6 +68217,41 @@
         <v>38175800</v>
       </c>
     </row>
+    <row r="1918">
+      <c r="A1918" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1918" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1918" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1918" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1918" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1918" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1918" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1918" t="n">
+        <v>16741000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1918"/>
+  <dimension ref="A1:I1919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68252,6 +68252,41 @@
         <v>16741000</v>
       </c>
     </row>
+    <row r="1919">
+      <c r="A1919" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1919" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1919" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1919" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1919" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1919" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1919" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1919" t="n">
+        <v>11380900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1919"/>
+  <dimension ref="A1:I1920"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68287,6 +68287,41 @@
         <v>11380900</v>
       </c>
     </row>
+    <row r="1920">
+      <c r="A1920" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1920" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1920" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1920" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1920" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1920" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1920" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1920" t="n">
+        <v>17720900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1920"/>
+  <dimension ref="A1:I1921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68322,6 +68322,41 @@
         <v>17720900</v>
       </c>
     </row>
+    <row r="1921">
+      <c r="A1921" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1921" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1921" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1921" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1921" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1921" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1921" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1921" t="n">
+        <v>37526800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1921"/>
+  <dimension ref="A1:I1922"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68357,6 +68357,41 @@
         <v>37526800</v>
       </c>
     </row>
+    <row r="1922">
+      <c r="A1922" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1922" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1922" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1922" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1922" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1922" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1922" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1922" t="n">
+        <v>22104900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1922"/>
+  <dimension ref="A1:I1923"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68392,6 +68392,41 @@
         <v>22104900</v>
       </c>
     </row>
+    <row r="1923">
+      <c r="A1923" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1923" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1923" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1923" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1923" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1923" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1923" t="n">
+        <v>24413500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1923"/>
+  <dimension ref="A1:I1924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68427,6 +68427,41 @@
         <v>24413500</v>
       </c>
     </row>
+    <row r="1924">
+      <c r="A1924" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1924" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1924" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1924" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1924" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1924" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1924" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1924" t="n">
+        <v>49214500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1924"/>
+  <dimension ref="A1:I1925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68462,6 +68462,41 @@
         <v>49214500</v>
       </c>
     </row>
+    <row r="1925">
+      <c r="A1925" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1925" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1925" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1925" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1925" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1925" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1925" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1925" t="n">
+        <v>47109900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1925"/>
+  <dimension ref="A1:I1926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68497,6 +68497,41 @@
         <v>47109900</v>
       </c>
     </row>
+    <row r="1926">
+      <c r="A1926" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1926" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1926" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1926" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1926" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1926" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1926" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1926" t="n">
+        <v>31107600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1926"/>
+  <dimension ref="A1:I1927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68532,6 +68532,41 @@
         <v>31107600</v>
       </c>
     </row>
+    <row r="1927">
+      <c r="A1927" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1927" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1927" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1927" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1927" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1927" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1927" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1927" t="n">
+        <v>20200400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1927"/>
+  <dimension ref="A1:I1928"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68567,6 +68567,41 @@
         <v>20200400</v>
       </c>
     </row>
+    <row r="1928">
+      <c r="A1928" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1928" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1928" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1928" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1928" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1928" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1928" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1928" t="n">
+        <v>18875800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1928"/>
+  <dimension ref="A1:I1929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68602,6 +68602,41 @@
         <v>18875800</v>
       </c>
     </row>
+    <row r="1929">
+      <c r="A1929" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1929" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1929" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1929" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1929" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1929" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1929" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1929" t="n">
+        <v>20039200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1929"/>
+  <dimension ref="A1:I1930"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68637,6 +68637,41 @@
         <v>20039200</v>
       </c>
     </row>
+    <row r="1930">
+      <c r="A1930" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1930" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1930" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1930" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1930" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1930" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1930" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1930" t="n">
+        <v>20169900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1930"/>
+  <dimension ref="A1:I1931"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68672,6 +68672,41 @@
         <v>20169900</v>
       </c>
     </row>
+    <row r="1931">
+      <c r="A1931" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1931" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1931" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1931" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1931" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1931" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1931" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1931" t="n">
+        <v>19419500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1931"/>
+  <dimension ref="A1:I1932"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68707,6 +68707,41 @@
         <v>19419500</v>
       </c>
     </row>
+    <row r="1932">
+      <c r="A1932" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1932" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1932" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1932" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1932" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1932" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1932" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1932" t="n">
+        <v>9853500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1932"/>
+  <dimension ref="A1:I1933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68742,6 +68742,41 @@
         <v>9853500</v>
       </c>
     </row>
+    <row r="1933">
+      <c r="A1933" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1933" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1933" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1933" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1933" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1933" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1933" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1933" t="n">
+        <v>10620800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1933"/>
+  <dimension ref="A1:I1934"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68777,6 +68777,41 @@
         <v>10620800</v>
       </c>
     </row>
+    <row r="1934">
+      <c r="A1934" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1934" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1934" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1934" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1934" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1934" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1934" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1934" t="n">
+        <v>141381800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1934"/>
+  <dimension ref="A1:I1935"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68812,6 +68812,41 @@
         <v>141381800</v>
       </c>
     </row>
+    <row r="1935">
+      <c r="A1935" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1935" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1935" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1935" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1935" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1935" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1935" t="n">
+        <v>100875200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1935"/>
+  <dimension ref="A1:I1936"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68847,6 +68847,41 @@
         <v>100875200</v>
       </c>
     </row>
+    <row r="1936">
+      <c r="A1936" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1936" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1936" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1936" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1936" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1936" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1936" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1936" t="n">
+        <v>20112700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1936"/>
+  <dimension ref="A1:I1937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68882,6 +68882,41 @@
         <v>20112700</v>
       </c>
     </row>
+    <row r="1937">
+      <c r="A1937" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1937" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1937" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1937" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1937" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1937" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1937" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1937" t="n">
+        <v>18050900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1937"/>
+  <dimension ref="A1:I1939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68917,6 +68917,76 @@
         <v>18050900</v>
       </c>
     </row>
+    <row r="1938">
+      <c r="A1938" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1938" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1938" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1938" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1938" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1938" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1938" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1938" t="n">
+        <v>87251100</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1939" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1939" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1939" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1939" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1939" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1939" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1939" t="n">
+        <v>39036600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1939"/>
+  <dimension ref="A1:I1940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68987,6 +68987,41 @@
         <v>39036600</v>
       </c>
     </row>
+    <row r="1940">
+      <c r="A1940" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1940" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1940" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1940" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1940" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1940" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1940" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1940" t="n">
+        <v>14296600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1940"/>
+  <dimension ref="A1:I1943"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69022,6 +69022,111 @@
         <v>14296600</v>
       </c>
     </row>
+    <row r="1941">
+      <c r="A1941" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1941" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1941" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1941" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1941" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1941" t="n">
+        <v>58268700</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1942" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1942" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1942" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1942" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1942" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1942" t="n">
+        <v>11940800</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1943" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1943" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1943" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1943" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1943" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1943" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1943" t="n">
+        <v>10960100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1943"/>
+  <dimension ref="A1:I1944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69127,6 +69127,41 @@
         <v>10960100</v>
       </c>
     </row>
+    <row r="1944">
+      <c r="A1944" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1944" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1944" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1944" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1944" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1944" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1944" t="n">
+        <v>24154700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1944"/>
+  <dimension ref="A1:I1945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69162,6 +69162,41 @@
         <v>24154700</v>
       </c>
     </row>
+    <row r="1945">
+      <c r="A1945" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1945" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1945" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1945" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1945" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1945" t="n">
+        <v>120187500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5182.xlsx
+++ b/data/5182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1945"/>
+  <dimension ref="A1:I1948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69197,6 +69197,111 @@
         <v>120187500</v>
       </c>
     </row>
+    <row r="1946">
+      <c r="A1946" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1946" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1946" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1946" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1946" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1946" t="n">
+        <v>30213000</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1947" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1947" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1947" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1947" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1947" t="n">
+        <v>13847100</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>5182</t>
+        </is>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="E1948" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1948" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1948" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1948" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1948" t="n">
+        <v>91443200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
